--- a/biology/Botanique/Corymborkis_minima/Corymborkis_minima.xlsx
+++ b/biology/Botanique/Corymborkis_minima/Corymborkis_minima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corymboris minima est une espèce de plantes de la famille des orchidées et du genre Corymborkis, présente en Afrique centrale, principalement au Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corymborkis minima est une plante assez semblable à Corymborkis corymbis, mais de plus petite taille. Elle mesure entre 15 et 30 cm, ses feuilles entre 5 et 10 cm et ses inflorescences entre 3 et 6 cm de long. Ses fleurs sont blanches et vertes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corymborkis minima est une plante assez semblable à Corymborkis corymbis, mais de plus petite taille. Elle mesure entre 15 et 30 cm, ses feuilles entre 5 et 10 cm et ses inflorescences entre 3 et 6 cm de long. Ses fleurs sont blanches et vertes.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Corymborkis minima dans les forêts riveraines, les forêts pluviales ou les vieilles forêts des régions qui s'étendent du Cameroun à la Guinée équatoriale. Cette plante pousse sur un sol argileux et sableux très acide[3].
-L'espèce a longtemps été considérée comme endémique du Cameroun, où on la trouve dans la région du Sud-Ouest (parc national de Korup), dans celles du Centre (parc de la Méfou) et du Sud. Puis sa présence a été signalée en outre sur un site de la région continentale en Guinée équatoriale, également sur un autre en République du Congo[4].
-Du fait de sa présence dans une aire protégée (Korup), l'espèce ne semble pas vraiment menacée d'extinction[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Corymborkis minima dans les forêts riveraines, les forêts pluviales ou les vieilles forêts des régions qui s'étendent du Cameroun à la Guinée équatoriale. Cette plante pousse sur un sol argileux et sableux très acide.
+L'espèce a longtemps été considérée comme endémique du Cameroun, où on la trouve dans la région du Sud-Ouest (parc national de Korup), dans celles du Centre (parc de la Méfou) et du Sud. Puis sa présence a été signalée en outre sur un site de la région continentale en Guinée équatoriale, également sur un autre en République du Congo.
+Du fait de sa présence dans une aire protégée (Korup), l'espèce ne semble pas vraiment menacée d'extinction.
 </t>
         </is>
       </c>
